--- a/taskcrud/taskcrud/save_excel/my-data.xlsx
+++ b/taskcrud/taskcrud/save_excel/my-data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Task ID</t>
   </si>
@@ -38,22 +38,49 @@
     <t>Repeat</t>
   </si>
   <si>
-    <t>Example Task</t>
-  </si>
-  <si>
-    <t>2023-07-01</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>Complete</t>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>dada</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
 </sst>
 </file>
@@ -132,14 +159,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>52.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -156,17 +185,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>53.0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3"/>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -180,17 +211,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>54.0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4"/>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -204,17 +237,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>102.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5"/>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
